--- a/data/trans_orig/P6713-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6713-Habitat-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>4066</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1049</v>
+        <v>1021</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10243</v>
+        <v>9282</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0151171628719852</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003899796347184332</v>
+        <v>0.003795534557543721</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03808773318705769</v>
+        <v>0.03451442851562161</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -763,19 +763,19 @@
         <v>6832</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2931</v>
+        <v>2904</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13722</v>
+        <v>13945</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04236550518805015</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01817198058909657</v>
+        <v>0.01800643823723297</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08508371046393935</v>
+        <v>0.08646600710382714</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -784,19 +784,19 @@
         <v>10898</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5835</v>
+        <v>5890</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19493</v>
+        <v>19238</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0253318463487467</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0135631910376654</v>
+        <v>0.01369130236299999</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04531046856446665</v>
+        <v>0.04471758105017046</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>14418</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8048</v>
+        <v>7312</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>26990</v>
+        <v>24686</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0536118260683664</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02992352142913207</v>
+        <v>0.0271897262004953</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1003580883573859</v>
+        <v>0.09178985130853901</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -834,19 +834,19 @@
         <v>8974</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3977</v>
+        <v>4105</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>17079</v>
+        <v>17415</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05564360312497114</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02466203430521513</v>
+        <v>0.02545584743864315</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1058984169282087</v>
+        <v>0.107982889273602</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>20</v>
@@ -855,19 +855,19 @@
         <v>23392</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>13926</v>
+        <v>15162</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>35034</v>
+        <v>36551</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05437348559568111</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03237024323615339</v>
+        <v>0.03524384470487932</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08143381077936437</v>
+        <v>0.0849600622362349</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>48496</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>37045</v>
+        <v>37369</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>61397</v>
+        <v>61975</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1803239584448578</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1377452736508688</v>
+        <v>0.1389504427695288</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2282954391499438</v>
+        <v>0.2304452026598166</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>33</v>
@@ -905,19 +905,19 @@
         <v>35411</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>25204</v>
+        <v>25119</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>47158</v>
+        <v>47312</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2195718367286539</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1562804523343131</v>
+        <v>0.1557540035168749</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2924049156934563</v>
+        <v>0.2933591865239742</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>83</v>
@@ -926,19 +926,19 @@
         <v>83907</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>68326</v>
+        <v>68514</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>101021</v>
+        <v>101800</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1950369508593385</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1588183414721092</v>
+        <v>0.1592566414961346</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2348162549447726</v>
+        <v>0.2366282804312187</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>61753</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>48585</v>
+        <v>49315</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>77750</v>
+        <v>76449</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2296176076079842</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1806539319672192</v>
+        <v>0.1833694235479968</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.289101246930032</v>
+        <v>0.2842620566684353</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>40</v>
@@ -976,19 +976,19 @@
         <v>43792</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>32974</v>
+        <v>32581</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>56618</v>
+        <v>55912</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2715332795797634</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.204455529253509</v>
+        <v>0.2020220019840315</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3510625276034121</v>
+        <v>0.3466876881603379</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>101</v>
@@ -997,19 +997,19 @@
         <v>105544</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>88626</v>
+        <v>88398</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>124224</v>
+        <v>124048</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2453306853776751</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2060061228451766</v>
+        <v>0.2054761734006187</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.288749656647988</v>
+        <v>0.2883414855704206</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>140205</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>122824</v>
+        <v>124387</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>157602</v>
+        <v>156888</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5213294450068064</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4567029258179027</v>
+        <v>0.4625130146350635</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5860194992801749</v>
+        <v>0.5833633435651495</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>62</v>
@@ -1047,19 +1047,19 @@
         <v>66266</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>53976</v>
+        <v>53270</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>80763</v>
+        <v>78838</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4108857753785614</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3346841630262856</v>
+        <v>0.3303054150378827</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.50077607246153</v>
+        <v>0.4888393987607452</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>195</v>
@@ -1068,19 +1068,19 @@
         <v>206470</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>186513</v>
+        <v>183653</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>227754</v>
+        <v>225919</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4799270318185586</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4335382440919444</v>
+        <v>0.4268885751621871</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5293986070377596</v>
+        <v>0.5251350290793205</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>22146</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14123</v>
+        <v>14036</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>34671</v>
+        <v>34445</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05419964147251481</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03456422518773312</v>
+        <v>0.0343502102978249</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08485102969333062</v>
+        <v>0.08429861795584498</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -1193,19 +1193,19 @@
         <v>18224</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10962</v>
+        <v>11187</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27477</v>
+        <v>27684</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06770150551773398</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04072302549328508</v>
+        <v>0.04155688871059022</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1020729170566083</v>
+        <v>0.1028440707817137</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>37</v>
@@ -1214,19 +1214,19 @@
         <v>40371</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>29324</v>
+        <v>28507</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>56337</v>
+        <v>54672</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05956193973882582</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04326376215019578</v>
+        <v>0.04205827601734016</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08311895319528678</v>
+        <v>0.08066169090701375</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>23323</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>15115</v>
+        <v>15066</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>37197</v>
+        <v>35104</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05707873599428813</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03699165881982145</v>
+        <v>0.03687116662708945</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09103528979336648</v>
+        <v>0.08591231047605867</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>20</v>
@@ -1264,19 +1264,19 @@
         <v>21574</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>13876</v>
+        <v>13782</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>32203</v>
+        <v>32221</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0801461111925018</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05154777411835484</v>
+        <v>0.05119846787180414</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1196290099473854</v>
+        <v>0.1196965543361081</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>41</v>
@@ -1285,19 +1285,19 @@
         <v>44897</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>33783</v>
+        <v>33750</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>61260</v>
+        <v>61454</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06624000036633794</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04984221815707823</v>
+        <v>0.04979441496154417</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.09038165366327508</v>
+        <v>0.09066726399037206</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>77533</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>62828</v>
+        <v>63491</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>94297</v>
+        <v>95388</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1897498818587275</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1537613699631432</v>
+        <v>0.1553843680777113</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2307772075520535</v>
+        <v>0.2334479864455625</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>49</v>
@@ -1335,19 +1335,19 @@
         <v>54423</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>42372</v>
+        <v>41391</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>68730</v>
+        <v>69981</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2021759632494991</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1574073651389688</v>
+        <v>0.1537622816875967</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2553235400080439</v>
+        <v>0.25997334297875</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>122</v>
@@ -1356,19 +1356,19 @@
         <v>131956</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>113009</v>
+        <v>111333</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>154052</v>
+        <v>154056</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1946849304176239</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1667306848763917</v>
+        <v>0.1642583771622012</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2272857178826457</v>
+        <v>0.2272902690854299</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>94899</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>79565</v>
+        <v>77892</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>113479</v>
+        <v>112967</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2322509178076115</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1947239865198772</v>
+        <v>0.1906295331288673</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2777233278614127</v>
+        <v>0.2764690022231023</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>52</v>
@@ -1406,19 +1406,19 @@
         <v>57617</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>44565</v>
+        <v>44803</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>71666</v>
+        <v>72560</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2140414143972715</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1655552140239552</v>
+        <v>0.1664387980572859</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2662328982155021</v>
+        <v>0.2695507403254772</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>138</v>
@@ -1427,19 +1427,19 @@
         <v>152516</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>131313</v>
+        <v>130913</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>174441</v>
+        <v>178843</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2250189690751529</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1937365835075721</v>
+        <v>0.1931461292945593</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.257367106647418</v>
+        <v>0.2638606675464185</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>190704</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>172067</v>
+        <v>167855</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>211595</v>
+        <v>209669</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4667208228668581</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4211076268783912</v>
+        <v>0.410799517380476</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5178475645895212</v>
+        <v>0.5131329572091918</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>106</v>
@@ -1477,19 +1477,19 @@
         <v>117348</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>100712</v>
+        <v>101117</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>134616</v>
+        <v>134809</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4359350056429937</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3741351807012747</v>
+        <v>0.3756398329973485</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5000819290704522</v>
+        <v>0.5008013510455537</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>282</v>
@@ -1498,19 +1498,19 @@
         <v>308053</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>280718</v>
+        <v>279912</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>337952</v>
+        <v>334093</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4544941604020595</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4141659249711721</v>
+        <v>0.4129767108514228</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4986067403350504</v>
+        <v>0.4929140840600506</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>13160</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7375</v>
+        <v>6732</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22951</v>
+        <v>22236</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0411924425259366</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02308417725051153</v>
+        <v>0.02107115999001041</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07184072442549488</v>
+        <v>0.06960487520244016</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>18</v>
@@ -1623,19 +1623,19 @@
         <v>20939</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12064</v>
+        <v>13124</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>31892</v>
+        <v>32397</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0981399105887104</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05654676076047851</v>
+        <v>0.06151450819965636</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1494770423633405</v>
+        <v>0.1518469946363144</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>30</v>
@@ -1644,19 +1644,19 @@
         <v>34098</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>22717</v>
+        <v>24243</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>48046</v>
+        <v>47809</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0639955578531928</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04263530600661766</v>
+        <v>0.04549869149268727</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09017284921265975</v>
+        <v>0.08972760560353872</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>21428</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12847</v>
+        <v>13547</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>32766</v>
+        <v>33421</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06707293096642017</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04021492210388571</v>
+        <v>0.04240366103538952</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1025648220252982</v>
+        <v>0.1046138391742378</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>12</v>
@@ -1694,19 +1694,19 @@
         <v>14470</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8135</v>
+        <v>7632</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>25289</v>
+        <v>23954</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06782316633451616</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0381297636981964</v>
+        <v>0.03577015297813869</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1185307059795514</v>
+        <v>0.1122745118699772</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>31</v>
@@ -1715,19 +1715,19 @@
         <v>35898</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>24761</v>
+        <v>25226</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>50918</v>
+        <v>50996</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06737334298126904</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04647164582739553</v>
+        <v>0.04734390332237734</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09556301264711628</v>
+        <v>0.09570979431554043</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>66208</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>51617</v>
+        <v>51336</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>84827</v>
+        <v>83012</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2072445760947979</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1615723379167836</v>
+        <v>0.1606928637971614</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2655282357702993</v>
+        <v>0.2598474870868507</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>38</v>
@@ -1765,19 +1765,19 @@
         <v>42154</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>31366</v>
+        <v>30798</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>56096</v>
+        <v>56755</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1975774889520794</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1470126273824209</v>
+        <v>0.1443520651810493</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2629244953095035</v>
+        <v>0.266012716092665</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>97</v>
@@ -1786,19 +1786,19 @@
         <v>108362</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>90735</v>
+        <v>88686</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>129417</v>
+        <v>131098</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2033736453845677</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1702911066003934</v>
+        <v>0.1664464864686687</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2428912563975804</v>
+        <v>0.2460464278356411</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>52904</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>39738</v>
+        <v>39587</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>66827</v>
+        <v>69064</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.165600936785051</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1243872688162821</v>
+        <v>0.1239170330463563</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2091835117187571</v>
+        <v>0.2161853231562304</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>30</v>
@@ -1836,19 +1836,19 @@
         <v>33851</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>23372</v>
+        <v>23723</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>47505</v>
+        <v>46280</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1586591435934799</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1095464363674843</v>
+        <v>0.1111907333391008</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2226584512916115</v>
+        <v>0.2169165909770272</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>79</v>
@@ -1857,19 +1857,19 @@
         <v>86754</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>68171</v>
+        <v>69080</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>107252</v>
+        <v>106524</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1628212783364811</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1279429000880776</v>
+        <v>0.129649736966411</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2012917709136122</v>
+        <v>0.1999250677095946</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>165767</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>147052</v>
+        <v>146610</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>183396</v>
+        <v>184426</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5188891136277943</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4603054656770634</v>
+        <v>0.4589217397466281</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5740699928094595</v>
+        <v>0.5772960701814714</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>93</v>
@@ -1907,19 +1907,19 @@
         <v>101941</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>86279</v>
+        <v>84169</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>117114</v>
+        <v>116070</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4778002905312141</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4043913057900073</v>
+        <v>0.3945035699607001</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5489196791059701</v>
+        <v>0.5440235525925184</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>243</v>
@@ -1928,19 +1928,19 @@
         <v>267708</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>244946</v>
+        <v>242869</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>291462</v>
+        <v>294191</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5024361754444894</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4597171245990865</v>
+        <v>0.455818977787773</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5470179181908525</v>
+        <v>0.5521404255405332</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>18455</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11236</v>
+        <v>10700</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>29767</v>
+        <v>29956</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04453230291627751</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02711333235100941</v>
+        <v>0.02581921875850859</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07182748570656207</v>
+        <v>0.0722837690079743</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>13</v>
@@ -2053,19 +2053,19 @@
         <v>13354</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7334</v>
+        <v>7122</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>22319</v>
+        <v>21706</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0448712426856122</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02464359356132657</v>
+        <v>0.02393083569767277</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07499113296981474</v>
+        <v>0.07293085588183647</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>30</v>
@@ -2074,19 +2074,19 @@
         <v>31810</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>21621</v>
+        <v>21518</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>45039</v>
+        <v>44310</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04467397197719513</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03036529712632781</v>
+        <v>0.03022036643881817</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06325333001448673</v>
+        <v>0.06222897027221905</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>16510</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>10076</v>
+        <v>10098</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>28421</v>
+        <v>25872</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03983870610665743</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02431395779084829</v>
+        <v>0.024367165434408</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06857877626550034</v>
+        <v>0.06242936624181297</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>17</v>
@@ -2124,19 +2124,19 @@
         <v>18749</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>10918</v>
+        <v>11492</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>28340</v>
+        <v>29507</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.06299571740771466</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03668626322365609</v>
+        <v>0.03861359344473351</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.0952235430981055</v>
+        <v>0.09914420000381886</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>33</v>
@@ -2145,19 +2145,19 @@
         <v>35259</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>25280</v>
+        <v>24185</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>49461</v>
+        <v>48632</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.04951780647047436</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03550383616156097</v>
+        <v>0.03396625381375442</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.06946340951490304</v>
+        <v>0.06829866314549173</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>95093</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>77399</v>
+        <v>79079</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>112621</v>
+        <v>113768</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2294573147537186</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1867624966717508</v>
+        <v>0.190815302389873</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2717515887028219</v>
+        <v>0.2745191340517424</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>63</v>
@@ -2195,19 +2195,19 @@
         <v>65711</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>52405</v>
+        <v>52239</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>80790</v>
+        <v>80570</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2207888652434467</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1760829644573453</v>
+        <v>0.1755236208126019</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2714555724415947</v>
+        <v>0.2707151292211501</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>153</v>
@@ -2216,19 +2216,19 @@
         <v>160804</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>137777</v>
+        <v>137831</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>182294</v>
+        <v>183960</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2258341013900506</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1934956036114337</v>
+        <v>0.1935705934740606</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2560148729456457</v>
+        <v>0.2583543614925581</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>115284</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>98811</v>
+        <v>97251</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>135161</v>
+        <v>134002</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.27817769969883</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2384297748630266</v>
+        <v>0.2346651873173231</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3261405377833104</v>
+        <v>0.3233434690777743</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>59</v>
@@ -2266,19 +2266,19 @@
         <v>63460</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>49815</v>
+        <v>49214</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>78771</v>
+        <v>77343</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2132259346447755</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1673783646092318</v>
+        <v>0.165360383505574</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2646731036150355</v>
+        <v>0.2598730933935118</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>175</v>
@@ -2287,19 +2287,19 @@
         <v>178744</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>154839</v>
+        <v>157131</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>202917</v>
+        <v>206211</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2510293494824725</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2174571470149179</v>
+        <v>0.2206763474604154</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2849787361325946</v>
+        <v>0.2896045470302614</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>169083</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>145448</v>
+        <v>150272</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>189441</v>
+        <v>191791</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4079939765245164</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3509613592560159</v>
+        <v>0.3626039271166067</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4571163764241445</v>
+        <v>0.4627866979174408</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>132</v>
@@ -2337,19 +2337,19 @@
         <v>136344</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>120831</v>
+        <v>118984</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>155226</v>
+        <v>152826</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.458118240018451</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4059927081337023</v>
+        <v>0.3997886444524915</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5215624117666428</v>
+        <v>0.5134955699502814</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>294</v>
@@ -2358,19 +2358,19 @@
         <v>305428</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>277545</v>
+        <v>277334</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>332987</v>
+        <v>331179</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4289447706798074</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3897867765364961</v>
+        <v>0.3894897613000073</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4676498127722454</v>
+        <v>0.4651100618262488</v>
       </c>
     </row>
     <row r="27">
@@ -2462,19 +2462,19 @@
         <v>57827</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>43441</v>
+        <v>44484</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>74387</v>
+        <v>77246</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04097020168855608</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03077783085729212</v>
+        <v>0.03151710401479188</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05270300978670856</v>
+        <v>0.05472880085389245</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>55</v>
@@ -2483,19 +2483,19 @@
         <v>59350</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>45584</v>
+        <v>46179</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>76566</v>
+        <v>75896</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.06304198816227242</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04841974113738107</v>
+        <v>0.04905131899830232</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08132920147748759</v>
+        <v>0.08061756832343743</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>108</v>
@@ -2504,19 +2504,19 @@
         <v>117177</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>95608</v>
+        <v>96381</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>138536</v>
+        <v>140290</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04980160379330366</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04063479548176175</v>
+        <v>0.04096329472882724</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05887978862717598</v>
+        <v>0.05962504798394787</v>
       </c>
     </row>
     <row r="29">
@@ -2533,19 +2533,19 @@
         <v>75679</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>57502</v>
+        <v>59308</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>95781</v>
+        <v>95318</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05361821888654143</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04074042929490913</v>
+        <v>0.04201997186906358</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06786086628963134</v>
+        <v>0.06753302966407149</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>57</v>
@@ -2554,19 +2554,19 @@
         <v>63767</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>48947</v>
+        <v>48033</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>81404</v>
+        <v>79553</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06773412410677462</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05199165001617936</v>
+        <v>0.05102066710406538</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08646796701477473</v>
+        <v>0.08450173806203747</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>125</v>
@@ -2575,19 +2575,19 @@
         <v>139446</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>116262</v>
+        <v>116408</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>165863</v>
+        <v>168079</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05926629976213511</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04941284960677176</v>
+        <v>0.0494750005720719</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07049377828188524</v>
+        <v>0.07143565787822687</v>
       </c>
     </row>
     <row r="30">
@@ -2604,19 +2604,19 @@
         <v>287329</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>256709</v>
+        <v>255463</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>319524</v>
+        <v>318011</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2035725429649957</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1818782318342404</v>
+        <v>0.1809956978825017</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2263824928180745</v>
+        <v>0.225310696722705</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>183</v>
@@ -2625,19 +2625,19 @@
         <v>197699</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>172170</v>
+        <v>173820</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>224723</v>
+        <v>224642</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2099980341458622</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1828800955174539</v>
+        <v>0.1846333079030607</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2387027404872804</v>
+        <v>0.2386167916430957</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>455</v>
@@ -2646,19 +2646,19 @@
         <v>485028</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>443651</v>
+        <v>443459</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>524386</v>
+        <v>522894</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2061435218210261</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1885576365252397</v>
+        <v>0.1884757452566495</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2228709145525423</v>
+        <v>0.222236664055712</v>
       </c>
     </row>
     <row r="31">
@@ -2675,19 +2675,19 @@
         <v>324839</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>293464</v>
+        <v>295171</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>358438</v>
+        <v>359976</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2301485546263789</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2079186888727022</v>
+        <v>0.2091287018194831</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2539533399073665</v>
+        <v>0.2550430506011466</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>181</v>
@@ -2696,19 +2696,19 @@
         <v>198719</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>173680</v>
+        <v>173708</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>225632</v>
+        <v>226566</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2110813573353118</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1844844717995069</v>
+        <v>0.1845146598086098</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2396682688594845</v>
+        <v>0.2406604212914588</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>493</v>
@@ -2717,19 +2717,19 @@
         <v>523559</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>484068</v>
+        <v>484589</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>562502</v>
+        <v>569727</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2225193540408943</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2057351844109541</v>
+        <v>0.2059565200232651</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2390708985048234</v>
+        <v>0.2421413133782709</v>
       </c>
     </row>
     <row r="32">
@@ -2746,19 +2746,19 @@
         <v>665760</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>625397</v>
+        <v>625337</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>705310</v>
+        <v>703800</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4716904818335279</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4430936413271135</v>
+        <v>0.4430510079047873</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4997115646508757</v>
+        <v>0.4986416742444228</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>393</v>
@@ -2767,19 +2767,19 @@
         <v>421898</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>393019</v>
+        <v>390834</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>453549</v>
+        <v>452471</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.448144496249779</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4174688453678889</v>
+        <v>0.4151479605997987</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.481763977148427</v>
+        <v>0.4806188465559316</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1014</v>
@@ -2788,19 +2788,19 @@
         <v>1087658</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1040299</v>
+        <v>1035771</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1138577</v>
+        <v>1139382</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4622692205826409</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.442140799828048</v>
+        <v>0.4402165694039177</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4839104035365496</v>
+        <v>0.4842522082312795</v>
       </c>
     </row>
     <row r="33">
@@ -3132,19 +3132,19 @@
         <v>15487</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8654</v>
+        <v>8787</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24894</v>
+        <v>25039</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06417661108813967</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03585917974282336</v>
+        <v>0.0364118613849717</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.103157484274535</v>
+        <v>0.1037574160536942</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -3153,19 +3153,19 @@
         <v>17586</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10691</v>
+        <v>11295</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26683</v>
+        <v>26866</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1070826209839726</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0650940009830077</v>
+        <v>0.06877507094087106</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1624709163658503</v>
+        <v>0.1635833710957875</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>32</v>
@@ -3174,19 +3174,19 @@
         <v>33074</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23582</v>
+        <v>23458</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>45532</v>
+        <v>45570</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08155178433049279</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0581484506226799</v>
+        <v>0.05784102320857348</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1122712910578048</v>
+        <v>0.1123661086301173</v>
       </c>
     </row>
     <row r="5">
@@ -3203,19 +3203,19 @@
         <v>30517</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>21854</v>
+        <v>20450</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>43138</v>
+        <v>41588</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1264578177889494</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09056178006145749</v>
+        <v>0.08474223201366746</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1787583435241631</v>
+        <v>0.1723345796395535</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>32</v>
@@ -3224,19 +3224,19 @@
         <v>29568</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>21390</v>
+        <v>20933</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>40020</v>
+        <v>40079</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.180035070060637</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1302436253406408</v>
+        <v>0.1274606245158652</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2436802903675967</v>
+        <v>0.2440374009493437</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>61</v>
@@ -3245,19 +3245,19 @@
         <v>60084</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>46741</v>
+        <v>45328</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>74848</v>
+        <v>74655</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1481544062699081</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1152516055956728</v>
+        <v>0.1117672292528194</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1845576099422631</v>
+        <v>0.1840822992462874</v>
       </c>
     </row>
     <row r="6">
@@ -3274,19 +3274,19 @@
         <v>59886</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>47173</v>
+        <v>46875</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>73414</v>
+        <v>75022</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2481584617945425</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1954770059743066</v>
+        <v>0.1942415521743839</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3042159752836502</v>
+        <v>0.3108784753252933</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>35</v>
@@ -3295,19 +3295,19 @@
         <v>31991</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>22557</v>
+        <v>22504</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>41757</v>
+        <v>42125</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1947930511637128</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1373487811244505</v>
+        <v>0.137024018485527</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2542589651844032</v>
+        <v>0.2564952124854167</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>93</v>
@@ -3316,19 +3316,19 @@
         <v>91877</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>76636</v>
+        <v>76082</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>110216</v>
+        <v>108410</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2265476604846301</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1889668270586845</v>
+        <v>0.187601319613744</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2717679966849703</v>
+        <v>0.2673132634290886</v>
       </c>
     </row>
     <row r="7">
@@ -3345,19 +3345,19 @@
         <v>58732</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>46260</v>
+        <v>46441</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>73406</v>
+        <v>73325</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2433757768441967</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1916953743059248</v>
+        <v>0.192444717756501</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3041858549108558</v>
+        <v>0.3038492529226128</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>47</v>
@@ -3366,19 +3366,19 @@
         <v>46589</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>35108</v>
+        <v>35358</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>58774</v>
+        <v>58843</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2836769549266535</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2137735565276011</v>
+        <v>0.2152951870732654</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3578695410580469</v>
+        <v>0.3582944471856312</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>103</v>
@@ -3387,19 +3387,19 @@
         <v>105321</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>88599</v>
+        <v>90471</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>123717</v>
+        <v>124695</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2596961000985298</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2184652921395055</v>
+        <v>0.2230796587452167</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3050566807291058</v>
+        <v>0.3074690958962752</v>
       </c>
     </row>
     <row r="8">
@@ -3416,19 +3416,19 @@
         <v>76699</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>62010</v>
+        <v>62978</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>91837</v>
+        <v>91619</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3178313324841717</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2569586165689626</v>
+        <v>0.2609733515606983</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3805594944374144</v>
+        <v>0.3796559476304582</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>39</v>
@@ -3437,19 +3437,19 @@
         <v>38498</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>28136</v>
+        <v>27779</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>49315</v>
+        <v>49048</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2344123028650242</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1713214770376226</v>
+        <v>0.1691443662634186</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3002785937164581</v>
+        <v>0.2986480681692161</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>111</v>
@@ -3458,19 +3458,19 @@
         <v>115197</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>97172</v>
+        <v>98680</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>131912</v>
+        <v>133693</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2840500488164391</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2396044650403558</v>
+        <v>0.2433227828536023</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3252651580656146</v>
+        <v>0.3296551872942591</v>
       </c>
     </row>
     <row r="9">
@@ -3562,19 +3562,19 @@
         <v>15423</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8487</v>
+        <v>9079</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27326</v>
+        <v>27048</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03732102647284553</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02053724944722811</v>
+        <v>0.02197113565707139</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0661261316369703</v>
+        <v>0.06545294788585464</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -3583,19 +3583,19 @@
         <v>21725</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13938</v>
+        <v>14332</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>31940</v>
+        <v>31772</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07965236261863291</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05110006414899717</v>
+        <v>0.05254558506144896</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1171046295418473</v>
+        <v>0.116486373434157</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>34</v>
@@ -3604,19 +3604,19 @@
         <v>37148</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>26332</v>
+        <v>25923</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>51291</v>
+        <v>51445</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05415188695471861</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03838507282605413</v>
+        <v>0.03778901482576869</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07476882083765994</v>
+        <v>0.07499288365923969</v>
       </c>
     </row>
     <row r="11">
@@ -3633,19 +3633,19 @@
         <v>32862</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>21868</v>
+        <v>22837</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45651</v>
+        <v>45254</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.079521742555002</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05291816012095825</v>
+        <v>0.05526145470334916</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.110470292794046</v>
+        <v>0.1095075110392224</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>31</v>
@@ -3654,19 +3654,19 @@
         <v>30851</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>21450</v>
+        <v>21460</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>42809</v>
+        <v>42161</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1131099259865261</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07864152026375965</v>
+        <v>0.07867990048899678</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1569522824476095</v>
+        <v>0.1545755431844035</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>62</v>
@@ -3675,19 +3675,19 @@
         <v>63713</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>49770</v>
+        <v>49437</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>80281</v>
+        <v>81489</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.09287634178684789</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07255168546901269</v>
+        <v>0.0720655819182158</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1170275423069971</v>
+        <v>0.118789099627427</v>
       </c>
     </row>
     <row r="12">
@@ -3704,19 +3704,19 @@
         <v>106888</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>88757</v>
+        <v>88786</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>127973</v>
+        <v>127340</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2586554778434385</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.21477920444308</v>
+        <v>0.2148492584552099</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3096768180569989</v>
+        <v>0.3081447396635525</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>60</v>
@@ -3725,19 +3725,19 @@
         <v>60836</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>48222</v>
+        <v>48284</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>76219</v>
+        <v>76515</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2230457799192759</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1767982680574182</v>
+        <v>0.1770263356950207</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2794471662247763</v>
+        <v>0.2805291167621953</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>157</v>
@@ -3746,19 +3746,19 @@
         <v>167724</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>147235</v>
+        <v>141953</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>192247</v>
+        <v>190932</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2444971282109318</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.214628671862983</v>
+        <v>0.2069289925597856</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2802443348906446</v>
+        <v>0.2783270554297992</v>
       </c>
     </row>
     <row r="13">
@@ -3775,19 +3775,19 @@
         <v>120253</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>100046</v>
+        <v>103018</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>139414</v>
+        <v>141802</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2909957994011798</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2420973945037379</v>
+        <v>0.2492888130822801</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3373624070599249</v>
+        <v>0.3431429522043609</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>78</v>
@@ -3796,19 +3796,19 @@
         <v>79784</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>66475</v>
+        <v>65319</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>96882</v>
+        <v>95927</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2925163358352344</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2437201445935088</v>
+        <v>0.2394831033142556</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3552022411625406</v>
+        <v>0.3517035199436456</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>186</v>
@@ -3817,19 +3817,19 @@
         <v>200037</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>175886</v>
+        <v>178768</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>225645</v>
+        <v>224131</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2916003618579622</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2563952334794021</v>
+        <v>0.2605954083862608</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3289294639616391</v>
+        <v>0.3267223533423622</v>
       </c>
     </row>
     <row r="14">
@@ -3846,19 +3846,19 @@
         <v>137820</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>117415</v>
+        <v>117936</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>157875</v>
+        <v>158353</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3335059537275342</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2841292965033051</v>
+        <v>0.2853900588108271</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3820364272262873</v>
+        <v>0.3831931285879932</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>76</v>
@@ -3867,19 +3867,19 @@
         <v>79555</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>63486</v>
+        <v>64032</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>94428</v>
+        <v>93727</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2916755956403307</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2327622759855109</v>
+        <v>0.2347637316975923</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.346206701586958</v>
+        <v>0.3436341990554382</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>198</v>
@@ -3888,19 +3888,19 @@
         <v>217375</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>191954</v>
+        <v>194059</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>242141</v>
+        <v>245960</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3168742811895396</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2798172192341545</v>
+        <v>0.2828858504699378</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3529772869244715</v>
+        <v>0.3585434429186828</v>
       </c>
     </row>
     <row r="15">
@@ -3992,19 +3992,19 @@
         <v>24443</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15905</v>
+        <v>16505</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>36501</v>
+        <v>36096</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06737906969945655</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04384333275660563</v>
+        <v>0.04549818883042066</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1006167150744412</v>
+        <v>0.09950120261060738</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>16</v>
@@ -4013,19 +4013,19 @@
         <v>17033</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10589</v>
+        <v>9477</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>27854</v>
+        <v>25928</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06319616331511793</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03928736108613923</v>
+        <v>0.03516317615433363</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1033452452209999</v>
+        <v>0.09619908564801143</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>38</v>
@@ -4034,19 +4034,19 @@
         <v>41476</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>30333</v>
+        <v>29670</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>56119</v>
+        <v>54849</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06559604720869046</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04797306371364447</v>
+        <v>0.0469241830625689</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08875382860590564</v>
+        <v>0.08674676504333875</v>
       </c>
     </row>
     <row r="17">
@@ -4063,19 +4063,19 @@
         <v>39591</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>28106</v>
+        <v>27953</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>55146</v>
+        <v>53674</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1091349271283646</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07747677169504673</v>
+        <v>0.07705511972150168</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.152012478286733</v>
+        <v>0.1479551625626002</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>37</v>
@@ -4084,19 +4084,19 @@
         <v>36527</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>26521</v>
+        <v>26785</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>49229</v>
+        <v>49244</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1355230661760095</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09839970309355807</v>
+        <v>0.09937745855438972</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1826532126704649</v>
+        <v>0.1827081114547092</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>73</v>
@@ -4105,19 +4105,19 @@
         <v>76118</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>61347</v>
+        <v>60610</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>93756</v>
+        <v>94157</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1203832413597272</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09702237965151821</v>
+        <v>0.09585652309688455</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1482791715114594</v>
+        <v>0.1489138067716416</v>
       </c>
     </row>
     <row r="18">
@@ -4134,19 +4134,19 @@
         <v>116297</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>98150</v>
+        <v>97319</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>135325</v>
+        <v>136260</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3205815074695752</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2705578781611447</v>
+        <v>0.2682667473308701</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3730328471917833</v>
+        <v>0.375608709914652</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>83</v>
@@ -4155,19 +4155,19 @@
         <v>84967</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>69507</v>
+        <v>70397</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>101407</v>
+        <v>101562</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3152465345473416</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.257886968704038</v>
+        <v>0.2611915305010864</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3762465481366387</v>
+        <v>0.3768192495470653</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>184</v>
@@ -4176,19 +4176,19 @@
         <v>201264</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>174902</v>
+        <v>176993</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>223624</v>
+        <v>226120</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3183074004650326</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2766147951600578</v>
+        <v>0.2799212370514457</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3536716272773327</v>
+        <v>0.3576187907102258</v>
       </c>
     </row>
     <row r="19">
@@ -4205,19 +4205,19 @@
         <v>78311</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>63515</v>
+        <v>62748</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>94737</v>
+        <v>95160</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.215868861514334</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1750827998079876</v>
+        <v>0.1729683908976492</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2611500323942932</v>
+        <v>0.2623141612118573</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>57</v>
@@ -4226,19 +4226,19 @@
         <v>57486</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>45196</v>
+        <v>45714</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>72298</v>
+        <v>71562</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2132876051548298</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1676882972718143</v>
+        <v>0.1696116817019625</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2682436890583136</v>
+        <v>0.2655111172255412</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>130</v>
@@ -4247,19 +4247,19 @@
         <v>135797</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>116937</v>
+        <v>116653</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>157799</v>
+        <v>156786</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.214768564801823</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1849415089991419</v>
+        <v>0.184492409544155</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2495656733363819</v>
+        <v>0.2479631191421371</v>
       </c>
     </row>
     <row r="20">
@@ -4276,19 +4276,19 @@
         <v>104128</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>87423</v>
+        <v>87831</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>123548</v>
+        <v>125190</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2870356341882697</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2409868638792912</v>
+        <v>0.2421119934583307</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3405679897089641</v>
+        <v>0.345094957363938</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>71</v>
@@ -4297,19 +4297,19 @@
         <v>73512</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>59832</v>
+        <v>58083</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>89917</v>
+        <v>89571</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2727466308067011</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2219896019310967</v>
+        <v>0.2155015954486017</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.333613902191439</v>
+        <v>0.332330251703682</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>165</v>
@@ -4318,19 +4318,19 @@
         <v>177640</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>155103</v>
+        <v>154656</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>200939</v>
+        <v>202026</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2809447461647267</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2453013690077302</v>
+        <v>0.2445958612495967</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3177939035634604</v>
+        <v>0.3195124788693967</v>
       </c>
     </row>
     <row r="21">
@@ -4422,19 +4422,19 @@
         <v>26170</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>17585</v>
+        <v>17056</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>37537</v>
+        <v>36376</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06558787520068288</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04407367707571178</v>
+        <v>0.04274599659819401</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09407757057958345</v>
+        <v>0.09116850276353776</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>30</v>
@@ -4443,19 +4443,19 @@
         <v>33313</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>23111</v>
+        <v>23297</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>46749</v>
+        <v>45709</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1023510193023641</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07100642663645348</v>
+        <v>0.07157974580095813</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1436347754373556</v>
+        <v>0.1404375140363115</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>56</v>
@@ -4464,19 +4464,19 @@
         <v>59482</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>45880</v>
+        <v>45796</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>76568</v>
+        <v>76692</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08210391348196586</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06332849265334591</v>
+        <v>0.06321246720439919</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1056875931132013</v>
+        <v>0.1058592826533613</v>
       </c>
     </row>
     <row r="23">
@@ -4493,19 +4493,19 @@
         <v>32621</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>23864</v>
+        <v>23397</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>44651</v>
+        <v>44944</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.08175672745048565</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05981048662613491</v>
+        <v>0.05863849208929568</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1119071289828995</v>
+        <v>0.1126416021412659</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>29</v>
@@ -4514,19 +4514,19 @@
         <v>30680</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>20545</v>
+        <v>21630</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>41098</v>
+        <v>43969</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.09426171286640042</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06312375942546491</v>
+        <v>0.06645747473136637</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1262700944659773</v>
+        <v>0.1350925729909077</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>61</v>
@@ -4535,19 +4535,19 @@
         <v>63301</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>48536</v>
+        <v>49736</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>80702</v>
+        <v>79098</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0873746587477897</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.06699421476742363</v>
+        <v>0.06865089760926164</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1113930862041077</v>
+        <v>0.1091793269039578</v>
       </c>
     </row>
     <row r="24">
@@ -4564,19 +4564,19 @@
         <v>74844</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>61350</v>
+        <v>58884</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>90846</v>
+        <v>92770</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1875790072817662</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1537601767475757</v>
+        <v>0.1475774722445437</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2276840668513372</v>
+        <v>0.2325062978007841</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>48</v>
@@ -4585,19 +4585,19 @@
         <v>51675</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>38890</v>
+        <v>39463</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>65791</v>
+        <v>67591</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1587689074172995</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1194864056211778</v>
+        <v>0.1212469668294998</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2021381669522207</v>
+        <v>0.2076694502820654</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>120</v>
@@ -4606,19 +4606,19 @@
         <v>126519</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>107552</v>
+        <v>106081</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>148734</v>
+        <v>147390</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1746359164804721</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1484548367116642</v>
+        <v>0.1464246889577131</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2052992079346384</v>
+        <v>0.203443581011542</v>
       </c>
     </row>
     <row r="25">
@@ -4635,19 +4635,19 @@
         <v>104152</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>88014</v>
+        <v>86882</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>121602</v>
+        <v>122660</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2610328604143308</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2205855315361619</v>
+        <v>0.217748582375036</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3047653392804959</v>
+        <v>0.3074189096392473</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>87</v>
@@ -4656,19 +4656,19 @@
         <v>89501</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>74899</v>
+        <v>73816</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>106136</v>
+        <v>107326</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2749875656376923</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2301231055789898</v>
+        <v>0.2267945288755549</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.326097416325874</v>
+        <v>0.3297514646376066</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>191</v>
@@ -4677,19 +4677,19 @@
         <v>193654</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>170404</v>
+        <v>171971</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>217631</v>
+        <v>221154</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2673020860560658</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2352103920426111</v>
+        <v>0.2373730877349234</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3003988969058541</v>
+        <v>0.3052613282623746</v>
       </c>
     </row>
     <row r="26">
@@ -4706,19 +4706,19 @@
         <v>161214</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>141636</v>
+        <v>140100</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>177782</v>
+        <v>182003</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4040435296527345</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.35497556203958</v>
+        <v>0.3511281167865216</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4455669807201224</v>
+        <v>0.4561477351946268</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>113</v>
@@ -4727,19 +4727,19 @@
         <v>120305</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>103947</v>
+        <v>103828</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>137999</v>
+        <v>139929</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3696307947762437</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3193724910928979</v>
+        <v>0.3190064518872184</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4239939330172694</v>
+        <v>0.4299236280623331</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>270</v>
@@ -4748,19 +4748,19 @@
         <v>281519</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>256230</v>
+        <v>252940</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>308060</v>
+        <v>307629</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3885834252337065</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.353676647691716</v>
+        <v>0.3491361017596216</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4252184830317832</v>
+        <v>0.4246233504889427</v>
       </c>
     </row>
     <row r="27">
@@ -4852,19 +4852,19 @@
         <v>81523</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>64738</v>
+        <v>64557</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>102744</v>
+        <v>100800</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0575587606373489</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04570797170722726</v>
+        <v>0.0455800028878209</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07254173603670502</v>
+        <v>0.07116980090624336</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>85</v>
@@ -4873,19 +4873,19 @@
         <v>89657</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>72397</v>
+        <v>71601</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>109258</v>
+        <v>108630</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.08687867407558929</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07015353770408872</v>
+        <v>0.06938225289666398</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1058715822385039</v>
+        <v>0.1052631852980634</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>160</v>
@@ -4894,19 +4894,19 @@
         <v>171180</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>147121</v>
+        <v>146042</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>198166</v>
+        <v>197914</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06991728895047837</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.06009054075300843</v>
+        <v>0.05964995120565109</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08093959711478881</v>
+        <v>0.08083679113936243</v>
       </c>
     </row>
     <row r="29">
@@ -4923,19 +4923,19 @@
         <v>135591</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>113480</v>
+        <v>115751</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>159293</v>
+        <v>161058</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.095733403523157</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.08012192611337542</v>
+        <v>0.08172544256211339</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1124680129698759</v>
+        <v>0.1137143267316382</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>129</v>
@@ -4944,19 +4944,19 @@
         <v>127625</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>107930</v>
+        <v>108172</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>149681</v>
+        <v>149340</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1236697509508109</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1045848823339014</v>
+        <v>0.1048200440786965</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1450426323500126</v>
+        <v>0.1447119396186168</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>257</v>
@@ -4965,19 +4965,19 @@
         <v>263216</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>233184</v>
+        <v>233149</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>294934</v>
+        <v>292667</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1075087500424202</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.09524245796805071</v>
+        <v>0.09522829907096718</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1204639233633707</v>
+        <v>0.1195381803637954</v>
       </c>
     </row>
     <row r="30">
@@ -4994,19 +4994,19 @@
         <v>357915</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>323256</v>
+        <v>322970</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>391257</v>
+        <v>391622</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2527050402941973</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.228233768240073</v>
+        <v>0.2280320215842515</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.276245721110308</v>
+        <v>0.2765032171552299</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>226</v>
@@ -5015,19 +5015,19 @@
         <v>229469</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>202957</v>
+        <v>203186</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>257399</v>
+        <v>256040</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2223576348026695</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1966676050309536</v>
+        <v>0.1968887130873595</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2494219340512678</v>
+        <v>0.2481049892559543</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>554</v>
@@ -5036,19 +5036,19 @@
         <v>587384</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>542348</v>
+        <v>543975</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>630525</v>
+        <v>632416</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2399134176044826</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2215185247087846</v>
+        <v>0.2221833466159541</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.257533917103024</v>
+        <v>0.2583062509257925</v>
       </c>
     </row>
     <row r="31">
@@ -5065,19 +5065,19 @@
         <v>361447</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>329200</v>
+        <v>331507</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>394046</v>
+        <v>395663</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2551987306753759</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2324305389881145</v>
+        <v>0.2340591798086376</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2782150801357452</v>
+        <v>0.2793565612027912</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>269</v>
@@ -5086,19 +5086,19 @@
         <v>273361</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>246527</v>
+        <v>248508</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>304496</v>
+        <v>302915</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2648889790226505</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2388872481075323</v>
+        <v>0.2408067325763638</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2950591425721498</v>
+        <v>0.2935275944344596</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>610</v>
@@ -5107,19 +5107,19 @@
         <v>634808</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>596154</v>
+        <v>592149</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>683585</v>
+        <v>681903</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2592832314298992</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2434953833870779</v>
+        <v>0.2418595533913369</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2792058754911459</v>
+        <v>0.2785190106627887</v>
       </c>
     </row>
     <row r="32">
@@ -5136,19 +5136,19 @@
         <v>479861</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>443728</v>
+        <v>443004</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>518390</v>
+        <v>516152</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3388040648699209</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3132926556445216</v>
+        <v>0.3127811411106473</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3660072832766987</v>
+        <v>0.3644272741674435</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>299</v>
@@ -5157,19 +5157,19 @@
         <v>311870</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>283252</v>
+        <v>282900</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>342976</v>
+        <v>343380</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3022049611482797</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2744741895633009</v>
+        <v>0.2741329577532028</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3323472349499201</v>
+        <v>0.3327380825307923</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>744</v>
@@ -5178,19 +5178,19 @@
         <v>791730</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>748342</v>
+        <v>744254</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>842931</v>
+        <v>840381</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3233773119727196</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3056553736334194</v>
+        <v>0.3039859314156927</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3442898146644517</v>
+        <v>0.3432481886780963</v>
       </c>
     </row>
     <row r="33">
